--- a/Project 2/Documents/FunctionPlotterDocuments/SmoothenOutput/output3SaltedSmoothenedGraph.xlsx
+++ b/Project 2/Documents/FunctionPlotterDocuments/SmoothenOutput/output3SaltedSmoothenedGraph.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rance\OneDrive\Documents\My Files\Other\College Class Materials\ThirdYearSpring\Probability and Applied Statistics\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{933E90F7-7E07-477E-B32E-981BE401D3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8F0A9F83-9682-46EB-9E87-85443C2D8357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{8B1AE003-1682-4992-896C-39DE44621CE8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{2DD7F531-45B6-44A4-A3F3-0DA3E2562E23}"/>
   </bookViews>
   <sheets>
     <sheet name="output3SaltedSmoothened" sheetId="1" r:id="rId1"/>
@@ -592,12 +592,27 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Smoothened Output (Window Value: 10)</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1710417760279965"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -974,304 +989,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>509.08333333333297</c:v>
+                  <c:v>1679.8333333333301</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>351.85714285714198</c:v>
+                  <c:v>2083.4285714285702</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>632.9375</c:v>
+                  <c:v>2480</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>320.11111111111097</c:v>
+                  <c:v>1889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>494.15</c:v>
+                  <c:v>1623.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>608.04761904761904</c:v>
+                  <c:v>1281.9090909090901</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>915.142857142857</c:v>
+                  <c:v>943.90909090908997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>594.33333333333303</c:v>
+                  <c:v>327.18181818181802</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>955.66666666666595</c:v>
+                  <c:v>457.18181818181802</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1120.5238095238001</c:v>
+                  <c:v>584.54545454545405</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>861.66666666666595</c:v>
+                  <c:v>-89.545454545454504</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>817.85714285714198</c:v>
+                  <c:v>-31.727272727272702</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1116.9047619047601</c:v>
+                  <c:v>-527.36363636363603</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>896</c:v>
+                  <c:v>-517</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1100.61904761904</c:v>
+                  <c:v>-256.36363636363598</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1211.6666666666599</c:v>
+                  <c:v>-222.636363636363</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1319.9523809523801</c:v>
+                  <c:v>73.090909090909093</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1326.6666666666599</c:v>
+                  <c:v>164.09090909090901</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1574.1428571428501</c:v>
+                  <c:v>1074.27272727272</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1463.6666666666599</c:v>
+                  <c:v>842.90909090908997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1580.0952380952299</c:v>
+                  <c:v>1648.45454545454</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2083.4761904761899</c:v>
+                  <c:v>2552</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2308</c:v>
+                  <c:v>2707.54545454545</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2468.38095238095</c:v>
+                  <c:v>3022.9090909090901</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2610.0952380952299</c:v>
+                  <c:v>2840.8181818181802</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2718.3333333333298</c:v>
+                  <c:v>3324.45454545454</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2528.1904761904698</c:v>
+                  <c:v>4302.3636363636297</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2561.2857142857101</c:v>
+                  <c:v>5330.5454545454504</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3028.6666666666601</c:v>
+                  <c:v>5804.8181818181802</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3148.8095238095202</c:v>
+                  <c:v>6146.0909090908999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3262.4285714285702</c:v>
+                  <c:v>6632.2727272727197</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3567.7619047619</c:v>
+                  <c:v>6443.6363636363603</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3905.0476190476102</c:v>
+                  <c:v>6435.2727272727197</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3862.2857142857101</c:v>
+                  <c:v>7627.9090909090901</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3750.6666666666601</c:v>
+                  <c:v>8754.0909090909099</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4275.0476190476102</c:v>
+                  <c:v>9804</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4806.3809523809496</c:v>
+                  <c:v>10221.4545454545</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5151.2857142857101</c:v>
+                  <c:v>10814.8181818181</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5745.0476190476102</c:v>
+                  <c:v>11337.727272727199</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5688</c:v>
+                  <c:v>12493.3636363636</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6037.2857142857101</c:v>
+                  <c:v>13194.4545454545</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6277.0476190476102</c:v>
+                  <c:v>14156.545454545399</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6177.0952380952303</c:v>
+                  <c:v>15321.4545454545</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6056.0952380952303</c:v>
+                  <c:v>16308.727272727199</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6288.1904761904698</c:v>
+                  <c:v>16211.6363636363</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7016.2857142857101</c:v>
+                  <c:v>16031.727272727199</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7163.1904761904698</c:v>
+                  <c:v>16488.909090909001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7677.4761904761899</c:v>
+                  <c:v>17676.727272727199</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>8326.1904761904698</c:v>
+                  <c:v>17625.545454545401</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8523.1428571428496</c:v>
+                  <c:v>18029.272727272699</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8937.8095238095193</c:v>
+                  <c:v>18574.727272727199</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>9534.7619047618991</c:v>
+                  <c:v>19289.272727272699</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>10000.666666666601</c:v>
+                  <c:v>19680</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>10726.3809523809</c:v>
+                  <c:v>19944</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>11108.3809523809</c:v>
+                  <c:v>20905.272727272699</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>11567.714285714201</c:v>
+                  <c:v>21827.272727272699</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>11584.666666666601</c:v>
+                  <c:v>22612.181818181802</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>12214.0952380952</c:v>
+                  <c:v>22921.181818181802</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>12191.9047619047</c:v>
+                  <c:v>23798</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>12546.5238095238</c:v>
+                  <c:v>24653.545454545401</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>12739.285714285699</c:v>
+                  <c:v>25000.727272727199</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>13494.0952380952</c:v>
+                  <c:v>25460.3636363636</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>13995.0476190476</c:v>
+                  <c:v>26369.272727272699</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>14544.285714285699</c:v>
+                  <c:v>27210</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>14998.809523809499</c:v>
+                  <c:v>28166.8181818181</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>15929.4285714285</c:v>
+                  <c:v>28949.727272727199</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>16708.238095238001</c:v>
+                  <c:v>30355</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>17606.952380952302</c:v>
+                  <c:v>31654.909090909001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>18152.809523809501</c:v>
+                  <c:v>33105.363636363603</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>19035.809523809501</c:v>
+                  <c:v>33234.818181818096</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>19619.523809523798</c:v>
+                  <c:v>34715.363636363603</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>20095.333333333299</c:v>
+                  <c:v>35772.181818181802</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>20217.857142857101</c:v>
+                  <c:v>36718.090909090897</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>20754.190476190401</c:v>
+                  <c:v>36865.181818181802</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>21504.666666666599</c:v>
+                  <c:v>37655.909090909001</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>21711.4761904761</c:v>
+                  <c:v>38675.272727272699</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>21846.857142857101</c:v>
+                  <c:v>39274.272727272699</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>22196.3809523809</c:v>
+                  <c:v>40242.818181818096</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>22682.809523809501</c:v>
+                  <c:v>41226.909090909001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>23252.1428571428</c:v>
+                  <c:v>41765.727272727199</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>23469.904761904701</c:v>
+                  <c:v>43088.4545454545</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>23851.523809523798</c:v>
+                  <c:v>43735</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>24471.952380952302</c:v>
+                  <c:v>45484</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>25223</c:v>
+                  <c:v>46740.363636363603</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>25722.761904761901</c:v>
+                  <c:v>48067</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>26045.761904761901</c:v>
+                  <c:v>49512.818181818096</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>27075.4285714285</c:v>
+                  <c:v>51172.909090909001</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>28145.857142857101</c:v>
+                  <c:v>52994.181818181802</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>28648.761904761901</c:v>
+                  <c:v>53932.272727272699</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>29443.714285714199</c:v>
+                  <c:v>55061.909090909001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>29715</c:v>
+                  <c:v>56349</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>30393.857142857101</c:v>
+                  <c:v>57598.090909090897</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>31303.809523809501</c:v>
+                  <c:v>58992.363636363603</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>32026.4285714285</c:v>
+                  <c:v>59647.545454545398</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>33009.761904761901</c:v>
+                  <c:v>61506.4545454545</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>33459.8947368421</c:v>
+                  <c:v>62368.4</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>34199.117647058803</c:v>
+                  <c:v>63124</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>34605.866666666603</c:v>
+                  <c:v>63220.875</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>34938</c:v>
+                  <c:v>63108.142857142797</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>36154.272727272699</c:v>
+                  <c:v>63710.333333333299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1279,7 +1294,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-139E-4FB4-9C91-521B0654C4FE}"/>
+              <c16:uniqueId val="{00000000-FEE7-4EA2-958A-C044BFC66447}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1291,11 +1306,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2036703775"/>
-        <c:axId val="2036702335"/>
+        <c:axId val="1330353551"/>
+        <c:axId val="1330350191"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2036703775"/>
+        <c:axId val="1330353551"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1335,7 +1350,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>X-Values</a:t>
                 </a:r>
               </a:p>
@@ -1407,12 +1429,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2036702335"/>
+        <c:crossAx val="1330350191"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2036702335"/>
+        <c:axId val="1330350191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1452,7 +1474,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Y-Values</a:t>
                 </a:r>
               </a:p>
@@ -1524,7 +1553,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2036703775"/>
+        <c:crossAx val="1330353551"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2134,22 +2163,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DE768EA-7438-EFC8-6727-8E2CCFC5E839}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E298522A-3289-F16F-9219-6A5FCE613721}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2486,7 +2515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EAECCB-28F1-41D9-9978-D8304DC9D252}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007990E7-7470-478F-8A86-2BE5A70B4651}">
   <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2500,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>509.08333333333297</v>
+        <v>1679.8333333333301</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2508,7 +2537,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>351.85714285714198</v>
+        <v>2083.4285714285702</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2516,7 +2545,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>632.9375</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2524,7 +2553,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>320.11111111111097</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2532,7 +2561,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>494.15</v>
+        <v>1623.7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2540,7 +2569,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>608.04761904761904</v>
+        <v>1281.9090909090901</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2548,7 +2577,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>915.142857142857</v>
+        <v>943.90909090908997</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2556,7 +2585,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>594.33333333333303</v>
+        <v>327.18181818181802</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2564,7 +2593,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>955.66666666666595</v>
+        <v>457.18181818181802</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2572,7 +2601,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1120.5238095238001</v>
+        <v>584.54545454545405</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2580,7 +2609,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>861.66666666666595</v>
+        <v>-89.545454545454504</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2588,7 +2617,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>817.85714285714198</v>
+        <v>-31.727272727272702</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2596,7 +2625,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1116.9047619047601</v>
+        <v>-527.36363636363603</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2604,7 +2633,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>896</v>
+        <v>-517</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2612,7 +2641,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1100.61904761904</v>
+        <v>-256.36363636363598</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2620,7 +2649,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1211.6666666666599</v>
+        <v>-222.636363636363</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2628,7 +2657,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1319.9523809523801</v>
+        <v>73.090909090909093</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -2636,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1326.6666666666599</v>
+        <v>164.09090909090901</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2644,7 +2673,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1574.1428571428501</v>
+        <v>1074.27272727272</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -2652,7 +2681,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1463.6666666666599</v>
+        <v>842.90909090908997</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -2660,7 +2689,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1580.0952380952299</v>
+        <v>1648.45454545454</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -2668,7 +2697,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2083.4761904761899</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2676,7 +2705,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2308</v>
+        <v>2707.54545454545</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -2684,7 +2713,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2468.38095238095</v>
+        <v>3022.9090909090901</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -2692,7 +2721,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2610.0952380952299</v>
+        <v>2840.8181818181802</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -2700,7 +2729,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2718.3333333333298</v>
+        <v>3324.45454545454</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -2708,7 +2737,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2528.1904761904698</v>
+        <v>4302.3636363636297</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -2716,7 +2745,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2561.2857142857101</v>
+        <v>5330.5454545454504</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -2724,7 +2753,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>3028.6666666666601</v>
+        <v>5804.8181818181802</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -2732,7 +2761,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>3148.8095238095202</v>
+        <v>6146.0909090908999</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -2740,7 +2769,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>3262.4285714285702</v>
+        <v>6632.2727272727197</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -2748,7 +2777,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>3567.7619047619</v>
+        <v>6443.6363636363603</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -2756,7 +2785,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>3905.0476190476102</v>
+        <v>6435.2727272727197</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -2764,7 +2793,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>3862.2857142857101</v>
+        <v>7627.9090909090901</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -2772,7 +2801,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>3750.6666666666601</v>
+        <v>8754.0909090909099</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -2780,7 +2809,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>4275.0476190476102</v>
+        <v>9804</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -2788,7 +2817,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>4806.3809523809496</v>
+        <v>10221.4545454545</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -2796,7 +2825,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>5151.2857142857101</v>
+        <v>10814.8181818181</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -2804,7 +2833,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>5745.0476190476102</v>
+        <v>11337.727272727199</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -2812,7 +2841,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>5688</v>
+        <v>12493.3636363636</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -2820,7 +2849,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>6037.2857142857101</v>
+        <v>13194.4545454545</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -2828,7 +2857,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>6277.0476190476102</v>
+        <v>14156.545454545399</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -2836,7 +2865,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>6177.0952380952303</v>
+        <v>15321.4545454545</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -2844,7 +2873,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>6056.0952380952303</v>
+        <v>16308.727272727199</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -2852,7 +2881,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>6288.1904761904698</v>
+        <v>16211.6363636363</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -2860,7 +2889,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>7016.2857142857101</v>
+        <v>16031.727272727199</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -2868,7 +2897,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>7163.1904761904698</v>
+        <v>16488.909090909001</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -2876,7 +2905,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>7677.4761904761899</v>
+        <v>17676.727272727199</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -2884,7 +2913,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>8326.1904761904698</v>
+        <v>17625.545454545401</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -2892,7 +2921,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>8523.1428571428496</v>
+        <v>18029.272727272699</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -2900,7 +2929,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>8937.8095238095193</v>
+        <v>18574.727272727199</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -2908,7 +2937,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>9534.7619047618991</v>
+        <v>19289.272727272699</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -2916,7 +2945,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>10000.666666666601</v>
+        <v>19680</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -2924,7 +2953,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>10726.3809523809</v>
+        <v>19944</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -2932,7 +2961,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>11108.3809523809</v>
+        <v>20905.272727272699</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -2940,7 +2969,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>11567.714285714201</v>
+        <v>21827.272727272699</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -2948,7 +2977,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>11584.666666666601</v>
+        <v>22612.181818181802</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -2956,7 +2985,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>12214.0952380952</v>
+        <v>22921.181818181802</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -2964,7 +2993,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>12191.9047619047</v>
+        <v>23798</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -2972,7 +3001,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>12546.5238095238</v>
+        <v>24653.545454545401</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -2980,7 +3009,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>12739.285714285699</v>
+        <v>25000.727272727199</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -2988,7 +3017,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>13494.0952380952</v>
+        <v>25460.3636363636</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -2996,7 +3025,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>13995.0476190476</v>
+        <v>26369.272727272699</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -3004,7 +3033,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>14544.285714285699</v>
+        <v>27210</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -3012,7 +3041,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>14998.809523809499</v>
+        <v>28166.8181818181</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -3020,7 +3049,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>15929.4285714285</v>
+        <v>28949.727272727199</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -3028,7 +3057,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>16708.238095238001</v>
+        <v>30355</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -3036,7 +3065,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>17606.952380952302</v>
+        <v>31654.909090909001</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -3044,7 +3073,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>18152.809523809501</v>
+        <v>33105.363636363603</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -3052,7 +3081,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>19035.809523809501</v>
+        <v>33234.818181818096</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -3060,7 +3089,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>19619.523809523798</v>
+        <v>34715.363636363603</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -3068,7 +3097,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>20095.333333333299</v>
+        <v>35772.181818181802</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -3076,7 +3105,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>20217.857142857101</v>
+        <v>36718.090909090897</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -3084,7 +3113,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>20754.190476190401</v>
+        <v>36865.181818181802</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -3092,7 +3121,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>21504.666666666599</v>
+        <v>37655.909090909001</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -3100,7 +3129,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>21711.4761904761</v>
+        <v>38675.272727272699</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -3108,7 +3137,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>21846.857142857101</v>
+        <v>39274.272727272699</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -3116,7 +3145,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>22196.3809523809</v>
+        <v>40242.818181818096</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -3124,7 +3153,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>22682.809523809501</v>
+        <v>41226.909090909001</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -3132,7 +3161,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>23252.1428571428</v>
+        <v>41765.727272727199</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -3140,7 +3169,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>23469.904761904701</v>
+        <v>43088.4545454545</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -3148,7 +3177,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>23851.523809523798</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -3156,7 +3185,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>24471.952380952302</v>
+        <v>45484</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -3164,7 +3193,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>25223</v>
+        <v>46740.363636363603</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -3172,7 +3201,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>25722.761904761901</v>
+        <v>48067</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -3180,7 +3209,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>26045.761904761901</v>
+        <v>49512.818181818096</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -3188,7 +3217,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>27075.4285714285</v>
+        <v>51172.909090909001</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -3196,7 +3225,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>28145.857142857101</v>
+        <v>52994.181818181802</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -3204,7 +3233,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>28648.761904761901</v>
+        <v>53932.272727272699</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -3212,7 +3241,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>29443.714285714199</v>
+        <v>55061.909090909001</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -3220,7 +3249,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>29715</v>
+        <v>56349</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -3228,7 +3257,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>30393.857142857101</v>
+        <v>57598.090909090897</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -3236,7 +3265,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>31303.809523809501</v>
+        <v>58992.363636363603</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -3244,7 +3273,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>32026.4285714285</v>
+        <v>59647.545454545398</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -3252,7 +3281,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>33009.761904761901</v>
+        <v>61506.4545454545</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -3260,7 +3289,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>33459.8947368421</v>
+        <v>62368.4</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -3268,7 +3297,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>34199.117647058803</v>
+        <v>63124</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -3276,7 +3305,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>34605.866666666603</v>
+        <v>63220.875</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -3284,7 +3313,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>34938</v>
+        <v>63108.142857142797</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -3292,7 +3321,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>36154.272727272699</v>
+        <v>63710.333333333299</v>
       </c>
     </row>
   </sheetData>
